--- a/cmip6/models/inm-cm4-8/cmip6_inm_inm-cm4-8_coupling.xlsx
+++ b/cmip6/models/inm-cm4-8/cmip6_inm_inm-cm4-8_coupling.xlsx
@@ -41,7 +41,7 @@
     <t>How To Use</t>
   </si>
   <si>
-    <t>https://es-doc.org/how-to-use-model-document-spreadsheets</t>
+    <t>https://es-doc.org/how-to-use-coupling-spreadsheets/</t>
   </si>
   <si>
     <t>Further Info</t>

--- a/cmip6/models/inm-cm4-8/cmip6_inm_inm-cm4-8_coupling.xlsx
+++ b/cmip6/models/inm-cm4-8/cmip6_inm_inm-cm4-8_coupling.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
-    <sheet name="Couplings" sheetId="2" r:id="rId2"/>
+    <sheet name="Example" sheetId="2" r:id="rId2"/>
+    <sheet name="Couplings" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>ES-DOC CMIP6 Model Coupling Documentation</t>
   </si>
@@ -23,7 +24,7 @@
     <t>MIP Era</t>
   </si>
   <si>
-    <t>cmip6</t>
+    <t>CMIP6</t>
   </si>
   <si>
     <t>Institute</t>
@@ -62,29 +63,50 @@
     <t>Internal notes</t>
   </si>
   <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Source Realm</t>
-  </si>
-  <si>
-    <t>Target Realm</t>
-  </si>
-  <si>
-    <t>Time Frequency (in seconds)</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>NOTE: To enter a new row, copy &amp; paste an existing row, and edit accordingly.</t>
+    <t>Variable *</t>
+  </si>
+  <si>
+    <t>Source Realm *</t>
+  </si>
+  <si>
+    <t>Target Realm *</t>
+  </si>
+  <si>
+    <t>Time Frequency (in seconds) *</t>
+  </si>
+  <si>
+    <t>Coupling Details *</t>
+  </si>
+  <si>
+    <t>sea_surface_temperature</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Atmosphere</t>
+  </si>
+  <si>
+    <t>10800</t>
+  </si>
+  <si>
+    <t>The area-weighted average of ocean grid cell within each atmosphere grid cell is used</t>
+  </si>
+  <si>
+    <t>uas</t>
+  </si>
+  <si>
+    <t>3600</t>
+  </si>
+  <si>
+    <t>OASIS coupling using vector transformation on rotated grid and using ocean grid points only</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,20 +153,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,12 +169,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF337AB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -176,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -197,9 +206,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -589,11 +595,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="40.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="60.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="70.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -613,24 +619,2041 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1">
+    <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="A3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
       <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E151"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="70.7109375" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="7"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="7"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="7"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="7"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="7"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="7"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="7"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="7"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="7"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="7"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="7"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="7"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="7"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="7"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="7"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="7"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="7"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="7"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="7"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="7"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="7"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="7"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="7"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="7"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="7"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="7"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="7"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="7"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="7"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="7"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="7"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+    </row>
+  </sheetData>
+  <dataValidations count="300">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C34">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C35">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C36">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C37">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C38">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C39">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C40">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C41">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C42">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C47">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C49">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C50">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C51">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C52">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C53">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C54">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C55">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C56">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C57">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C58">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C59">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C60">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B61">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C61">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C62">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C63">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C64">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B65">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C65">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C66">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C67">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C68">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C69">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C70">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C71">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C72">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C73">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C74">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C75">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C76">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C77">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C78">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C79">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C80">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C81">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C82">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C83">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C84">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B85">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C85">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B86">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C86">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B87">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C87">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B88">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C88">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C89">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B90">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C90">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C91">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C92">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C93">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B94">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C94">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C95">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B96">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C96">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C97">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B98">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C98">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C99">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C100">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B101">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C101">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B102">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C102">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B103">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C103">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B104">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C104">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B105">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C105">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B106">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C106">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B107">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C107">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B108">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C108">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B109">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C109">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B110">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C110">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B111">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C111">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B112">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C112">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B113">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C113">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C114">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B115">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C115">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B116">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C116">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B117">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C117">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B118">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C118">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B119">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C119">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B120">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C120">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B121">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C121">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B122">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C122">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B123">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C123">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B124">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C124">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B125">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C125">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B126">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C126">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B127">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C127">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B128">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C128">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B129">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C129">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B130">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C130">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B131">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C131">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B132">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C132">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B133">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C133">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B134">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C134">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C135">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B136">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C136">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B137">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C137">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B138">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C138">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B139">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C139">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B140">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C140">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B141">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C141">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C142">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B143">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C143">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B144">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C144">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B145">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C145">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C146">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B147">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C147">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B148">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C148">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B149">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C149">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B150">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C150">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B151">
+      <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C151">
       <formula1>"Aerosol,Atmosphere,Land Surface,Ocean,Sea Ice"</formula1>
     </dataValidation>
   </dataValidations>
